--- a/rmd_reference/exported and internal functions.xlsx
+++ b/rmd_reference/exported and internal functions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t xml:space="preserve"> [1] "agg.function.flow.Rd"       </t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>check for all subdirectories, not just data</t>
+  </si>
+  <si>
+    <t>uses cache system</t>
+  </si>
+  <si>
+    <t>cache.load.data</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,143 +317,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -794,30 +683,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="1" max="1" width="44.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="5" max="5" width="19" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -827,130 +720,143 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -959,19 +865,22 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -980,19 +889,22 @@
       <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1001,374 +913,419 @@
       <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1377,97 +1334,105 @@
       <c r="D35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1476,144 +1441,180 @@
       <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:J49">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+  <conditionalFormatting sqref="G2:K49">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <conditionalFormatting sqref="F2:F50">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>